--- a/module2/patient_2_anamnesis_data.xlsx
+++ b/module2/patient_2_anamnesis_data.xlsx
@@ -491,11 +491,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>yaşı 22</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,7 +533,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>kadındır</t>
+          <t>kadın</t>
         </is>
       </c>
     </row>
@@ -548,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="43.2" customWidth="1" min="1" max="1"/>
+    <col width="40.8" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -561,7 +569,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>komorbidite durumu bulunmamaktadır</t>
+          <t>bulunmamaktadır, bulunmamaktadır</t>
         </is>
       </c>
     </row>
@@ -584,7 +592,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="32.4" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -595,7 +603,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ağrı Şiddeti</t>
+          <t>Ağrıların Kaçı Şiddetli</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -627,29 +635,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ayda 20'den fazla ağrılı gün geçirmektedir</t>
+          <t>20'den fazla</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15'ten fazlası şiddetlidir</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>15'ten fazlası</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ilaçsız 3-4 saat ile 1-2 gün arasında değişmektedir</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>3-4 saat ile 1-2 gün arasında</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>En sık yaşadığı ağrı karakteri zonklayıcıdır</t>
+          <t>zonklayıcı</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Baş ağrısı şikâyeti 7-8 yıldır devam etmektedir.</t>
+          <t>7-8</t>
         </is>
       </c>
     </row>
@@ -755,47 +771,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fotofobi ve osmofobi bulguları yoktur</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fonofobi seviyesi 4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fotofobi ve osmofobi bulguları yoktur</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bulantı yoktur</t>
+          <t>belirtilmemiş</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kusma yoktur</t>
+          <t>belirtilmemiş</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>menstrüel ilişki yoktur</t>
+          <t>yok</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>analjezik kullanımı gibi eşlik eden bulguları yoktur</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -873,9 +921,21 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -896,7 +956,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21.6" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -939,37 +999,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MIDAS skoru 21</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HIT skoru 72</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Beck Depresyon skoru 0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beck Anksiyete skoru 10</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Allodini skoru 0</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vücut Kitle İndeksi 21,87</t>
+          <t>21,87, 21,87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>UPSIS-12 skoru 5</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -992,7 +1052,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.4" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1003,7 +1063,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>belirtilmemiş</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
